--- a/biology/Botanique/Botanic_Gardens_Conservation_International/Botanic_Gardens_Conservation_International.xlsx
+++ b/biology/Botanique/Botanic_Gardens_Conservation_International/Botanic_Gardens_Conservation_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Botanic Gardens Conservation International, abrégé par le sigle BGCI, est une association sans but lucratif créée en 1987 qui a pour objet la préservation de la diversité botanique. Basée à Londres, au Royaume-Uni, elle compte plus de 800 jardins botaniques adhérents dans 120 pays. Elle est parrainée par le Prince Charles et emploie 17 salariés permanents, principalement à son siège londonien.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,18 +552,123 @@
           <t>Jardins botaniques reconnus par le BGCI</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jardins reconnus par le BGCI. En gras, les jardins botaniques membres de la BGCI.
-France
- Jardin des plantes de Paris
-Arboretum de Versailles-Chèvreloup
-Indonésie
-* Jardin botanique de Bogor
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardins reconnus par le BGCI. En gras, les jardins botaniques membres de la BGCI.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Botanic_Gardens_Conservation_International</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Botanic_Gardens_Conservation_International</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Jardins botaniques reconnus par le BGCI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin des plantes de Paris
+Arboretum de Versailles-Chèvreloup</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Botanic_Gardens_Conservation_International</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Botanic_Gardens_Conservation_International</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jardins botaniques reconnus par le BGCI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indonésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>* Jardin botanique de Bogor
 Jardin botanique de Cibodas
-Jardin botanique de Purwodadi
-Italie
-Jardin botanique de Pise</t>
+Jardin botanique de Purwodadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Botanic_Gardens_Conservation_International</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Botanic_Gardens_Conservation_International</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jardins botaniques reconnus par le BGCI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Pise</t>
         </is>
       </c>
     </row>
